--- a/GATEWAY/A1#111#TOMPROJECTSRLSXX/TOMproject_srls/tomko_med/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TOMPROJECTSRLSXX/TOMproject_srls/tomko_med/2.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it-fse-gtw-tools-main\jwt-generator\data-generator\INVIATI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EEFC65-C429-4D52-8D34-8CC648BEACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151FDF0-D54C-4AC0-B4C4-B2109637DCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="540" windowWidth="27375" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$202</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="470">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1810,6 +1810,26 @@
   <si>
     <t>2024-12-11T18:50:46Z</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>E' stato utilizzato lo stesso file pdf contente il Referto xml CDA2 del Test Case 1 dato che contiene tutte le sezioni ed elementi obbligatori da specifiche nazionali HL7 Italia</t>
+  </si>
+  <si>
+    <t>2024-12-23T15:53:34Z</t>
+  </si>
+  <si>
+    <t>a72d5afcf1ea5726</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.8943ee670e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
@@ -1818,7 +1838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,6 +1966,11 @@
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2528,7 +2553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2728,6 +2753,18 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2749,12 +2786,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4199,13 +4230,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W785"/>
+  <dimension ref="A1:W786"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="E146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E128" sqref="E128"/>
+      <selection pane="bottomRight" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4247,14 +4278,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="78"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4275,14 +4306,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="86" t="s">
         <v>458</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="78"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4303,12 +4334,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4330,12 +4361,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="78"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4356,8 +4387,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8919,13 +8950,13 @@
       <c r="F128" s="67">
         <v>45637</v>
       </c>
-      <c r="G128" s="84" t="s">
+      <c r="G128" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="H128" s="83" t="s">
+      <c r="H128" s="71" t="s">
         <v>461</v>
       </c>
-      <c r="I128" s="84" t="s">
+      <c r="I128" s="72" t="s">
         <v>462</v>
       </c>
       <c r="J128" s="34" t="s">
@@ -10708,17 +10739,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
-      <c r="E174" s="31"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="70"/>
-      <c r="H174" s="70"/>
-      <c r="I174" s="70"/>
-      <c r="J174" s="34"/>
+    <row r="174" spans="1:23" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="29">
+        <v>374</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="F174" s="73">
+        <v>45649</v>
+      </c>
+      <c r="G174" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="H174" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="I174" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="J174" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="K174" s="34"/>
       <c r="L174" s="34"/>
       <c r="M174" s="34"/>
@@ -10728,88 +10779,82 @@
       <c r="Q174" s="34"/>
       <c r="R174" s="34"/>
       <c r="S174" s="34"/>
-      <c r="T174" s="34"/>
+      <c r="T174" s="34" t="s">
+        <v>273</v>
+      </c>
       <c r="U174" s="35"/>
-      <c r="V174" s="36"/>
-      <c r="W174" s="39"/>
-    </row>
-    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="40">
+      <c r="V174" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="W174" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="29"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="70"/>
+      <c r="H175" s="70"/>
+      <c r="I175" s="70"/>
+      <c r="J175" s="34"/>
+      <c r="K175" s="34"/>
+      <c r="L175" s="34"/>
+      <c r="M175" s="34"/>
+      <c r="N175" s="34"/>
+      <c r="O175" s="34"/>
+      <c r="P175" s="34"/>
+      <c r="Q175" s="34"/>
+      <c r="R175" s="34"/>
+      <c r="S175" s="34"/>
+      <c r="T175" s="34"/>
+      <c r="U175" s="35"/>
+      <c r="V175" s="36"/>
+      <c r="W175" s="39"/>
+    </row>
+    <row r="176" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="40">
         <v>376</v>
       </c>
-      <c r="B175" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C175" s="41" t="s">
+      <c r="B176" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D175" s="41" t="s">
+      <c r="D176" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E175" s="42" t="s">
+      <c r="E176" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="F175" s="43"/>
-      <c r="G175" s="44"/>
-      <c r="H175" s="44"/>
-      <c r="I175" s="44"/>
-      <c r="J175" s="45"/>
-      <c r="K175" s="45"/>
-      <c r="L175" s="45"/>
-      <c r="M175" s="45"/>
-      <c r="N175" s="45"/>
-      <c r="O175" s="45"/>
-      <c r="P175" s="45"/>
-      <c r="Q175" s="45"/>
-      <c r="R175" s="45"/>
-      <c r="S175" s="45"/>
-      <c r="T175" s="45"/>
-      <c r="U175" s="46"/>
-      <c r="V175" s="47"/>
-      <c r="W175" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="49">
-        <v>417</v>
-      </c>
-      <c r="B176" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C176" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E176" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="F176" s="52"/>
-      <c r="G176" s="53"/>
-      <c r="H176" s="53"/>
-      <c r="I176" s="53"/>
-      <c r="J176" s="54"/>
-      <c r="K176" s="54"/>
-      <c r="L176" s="54"/>
-      <c r="M176" s="54"/>
-      <c r="N176" s="54"/>
-      <c r="O176" s="54"/>
-      <c r="P176" s="54"/>
-      <c r="Q176" s="54"/>
-      <c r="R176" s="54"/>
-      <c r="S176" s="54"/>
-      <c r="T176" s="54"/>
-      <c r="U176" s="55"/>
-      <c r="V176" s="56"/>
-      <c r="W176" s="57" t="s">
+      <c r="F176" s="43"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="44"/>
+      <c r="I176" s="44"/>
+      <c r="J176" s="45"/>
+      <c r="K176" s="45"/>
+      <c r="L176" s="45"/>
+      <c r="M176" s="45"/>
+      <c r="N176" s="45"/>
+      <c r="O176" s="45"/>
+      <c r="P176" s="45"/>
+      <c r="Q176" s="45"/>
+      <c r="R176" s="45"/>
+      <c r="S176" s="45"/>
+      <c r="T176" s="45"/>
+      <c r="U176" s="46"/>
+      <c r="V176" s="47"/>
+      <c r="W176" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="49">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B177" s="41" t="s">
         <v>34</v>
@@ -10818,10 +10863,10 @@
         <v>297</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="E177" s="31" t="s">
-        <v>359</v>
+        <v>298</v>
+      </c>
+      <c r="E177" s="51" t="s">
+        <v>360</v>
       </c>
       <c r="F177" s="52"/>
       <c r="G177" s="53"/>
@@ -10846,7 +10891,7 @@
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="49">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B178" s="41" t="s">
         <v>34</v>
@@ -10855,10 +10900,10 @@
         <v>297</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F178" s="52"/>
       <c r="G178" s="53"/>
@@ -10883,7 +10928,7 @@
     </row>
     <row r="179" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="49">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B179" s="41" t="s">
         <v>34</v>
@@ -10892,10 +10937,10 @@
         <v>297</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="F179" s="52"/>
       <c r="G179" s="53"/>
@@ -10915,12 +10960,12 @@
       <c r="U179" s="55"/>
       <c r="V179" s="56"/>
       <c r="W179" s="57" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="49">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B180" s="41" t="s">
         <v>34</v>
@@ -10929,10 +10974,10 @@
         <v>297</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F180" s="52"/>
       <c r="G180" s="53"/>
@@ -10957,7 +11002,7 @@
     </row>
     <row r="181" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="49">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B181" s="41" t="s">
         <v>34</v>
@@ -10966,10 +11011,10 @@
         <v>297</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="F181" s="52"/>
       <c r="G181" s="53"/>
@@ -10994,7 +11039,7 @@
     </row>
     <row r="182" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="49">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B182" s="41" t="s">
         <v>34</v>
@@ -11003,10 +11048,10 @@
         <v>297</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="F182" s="52"/>
       <c r="G182" s="53"/>
@@ -11031,7 +11076,7 @@
     </row>
     <row r="183" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="49">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B183" s="41" t="s">
         <v>34</v>
@@ -11040,10 +11085,10 @@
         <v>297</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F183" s="52"/>
       <c r="G183" s="53"/>
@@ -11068,7 +11113,7 @@
     </row>
     <row r="184" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="49">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B184" s="41" t="s">
         <v>34</v>
@@ -11077,10 +11122,10 @@
         <v>297</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F184" s="52"/>
       <c r="G184" s="53"/>
@@ -11105,7 +11150,7 @@
     </row>
     <row r="185" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="49">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B185" s="41" t="s">
         <v>34</v>
@@ -11114,10 +11159,10 @@
         <v>297</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F185" s="52"/>
       <c r="G185" s="53"/>
@@ -11142,7 +11187,7 @@
     </row>
     <row r="186" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="49">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B186" s="41" t="s">
         <v>34</v>
@@ -11151,10 +11196,10 @@
         <v>297</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F186" s="52"/>
       <c r="G186" s="53"/>
@@ -11179,7 +11224,7 @@
     </row>
     <row r="187" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="49">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B187" s="41" t="s">
         <v>34</v>
@@ -11188,10 +11233,10 @@
         <v>297</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F187" s="52"/>
       <c r="G187" s="53"/>
@@ -11216,7 +11261,7 @@
     </row>
     <row r="188" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="49">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B188" s="41" t="s">
         <v>34</v>
@@ -11225,10 +11270,10 @@
         <v>297</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="F188" s="52"/>
       <c r="G188" s="53"/>
@@ -11253,7 +11298,7 @@
     </row>
     <row r="189" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="49">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B189" s="41" t="s">
         <v>34</v>
@@ -11262,10 +11307,10 @@
         <v>297</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F189" s="52"/>
       <c r="G189" s="53"/>
@@ -11290,7 +11335,7 @@
     </row>
     <row r="190" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="49">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B190" s="41" t="s">
         <v>34</v>
@@ -11299,10 +11344,10 @@
         <v>297</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F190" s="52"/>
       <c r="G190" s="53"/>
@@ -11327,7 +11372,7 @@
     </row>
     <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="49">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B191" s="41" t="s">
         <v>34</v>
@@ -11336,10 +11381,10 @@
         <v>297</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F191" s="52"/>
       <c r="G191" s="53"/>
@@ -11364,7 +11409,7 @@
     </row>
     <row r="192" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="49">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B192" s="41" t="s">
         <v>34</v>
@@ -11373,10 +11418,10 @@
         <v>297</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F192" s="52"/>
       <c r="G192" s="53"/>
@@ -11401,7 +11446,7 @@
     </row>
     <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="49">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B193" s="41" t="s">
         <v>34</v>
@@ -11410,10 +11455,10 @@
         <v>297</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="F193" s="52"/>
       <c r="G193" s="53"/>
@@ -11438,7 +11483,7 @@
     </row>
     <row r="194" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="49">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B194" s="41" t="s">
         <v>34</v>
@@ -11447,10 +11492,10 @@
         <v>297</v>
       </c>
       <c r="D194" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F194" s="52"/>
       <c r="G194" s="53"/>
@@ -11475,7 +11520,7 @@
     </row>
     <row r="195" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="49">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B195" s="41" t="s">
         <v>34</v>
@@ -11484,10 +11529,10 @@
         <v>297</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F195" s="52"/>
       <c r="G195" s="53"/>
@@ -11512,7 +11557,7 @@
     </row>
     <row r="196" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="49">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B196" s="41" t="s">
         <v>34</v>
@@ -11521,10 +11566,10 @@
         <v>297</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="F196" s="52"/>
       <c r="G196" s="53"/>
@@ -11549,7 +11594,7 @@
     </row>
     <row r="197" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="49">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B197" s="41" t="s">
         <v>34</v>
@@ -11558,10 +11603,10 @@
         <v>297</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F197" s="52"/>
       <c r="G197" s="53"/>
@@ -11585,94 +11630,94 @@
       </c>
     </row>
     <row r="198" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="58">
+      <c r="A198" s="49">
+        <v>441</v>
+      </c>
+      <c r="B198" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C198" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="F198" s="52"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="53"/>
+      <c r="I198" s="53"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="54"/>
+      <c r="L198" s="54"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="54"/>
+      <c r="O198" s="54"/>
+      <c r="P198" s="54"/>
+      <c r="Q198" s="54"/>
+      <c r="R198" s="54"/>
+      <c r="S198" s="54"/>
+      <c r="T198" s="54"/>
+      <c r="U198" s="55"/>
+      <c r="V198" s="56"/>
+      <c r="W198" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="58">
         <v>442</v>
       </c>
-      <c r="B198" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C198" s="59" t="s">
+      <c r="B199" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="D198" s="41" t="s">
+      <c r="D199" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="E198" s="42" t="s">
+      <c r="E199" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="F198" s="61"/>
-      <c r="G198" s="62"/>
-      <c r="H198" s="62"/>
-      <c r="I198" s="62"/>
-      <c r="J198" s="63"/>
-      <c r="K198" s="63"/>
-      <c r="L198" s="63"/>
-      <c r="M198" s="63"/>
-      <c r="N198" s="63"/>
-      <c r="O198" s="63"/>
-      <c r="P198" s="63"/>
-      <c r="Q198" s="63"/>
-      <c r="R198" s="63"/>
-      <c r="S198" s="63"/>
-      <c r="T198" s="63"/>
-      <c r="U198" s="64"/>
-      <c r="V198" s="65"/>
-      <c r="W198" s="66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="49">
-        <v>443</v>
-      </c>
-      <c r="B199" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C199" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="D199" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="E199" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="F199" s="52"/>
-      <c r="G199" s="53"/>
-      <c r="H199" s="53"/>
-      <c r="I199" s="53"/>
-      <c r="J199" s="54"/>
-      <c r="K199" s="54"/>
-      <c r="L199" s="54"/>
-      <c r="M199" s="54"/>
-      <c r="N199" s="54"/>
-      <c r="O199" s="54"/>
-      <c r="P199" s="54"/>
-      <c r="Q199" s="54"/>
-      <c r="R199" s="54"/>
-      <c r="S199" s="54"/>
-      <c r="T199" s="54"/>
-      <c r="U199" s="55"/>
-      <c r="V199" s="56"/>
-      <c r="W199" s="57" t="s">
+      <c r="F199" s="61"/>
+      <c r="G199" s="62"/>
+      <c r="H199" s="62"/>
+      <c r="I199" s="62"/>
+      <c r="J199" s="63"/>
+      <c r="K199" s="63"/>
+      <c r="L199" s="63"/>
+      <c r="M199" s="63"/>
+      <c r="N199" s="63"/>
+      <c r="O199" s="63"/>
+      <c r="P199" s="63"/>
+      <c r="Q199" s="63"/>
+      <c r="R199" s="63"/>
+      <c r="S199" s="63"/>
+      <c r="T199" s="63"/>
+      <c r="U199" s="64"/>
+      <c r="V199" s="65"/>
+      <c r="W199" s="66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="49">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B200" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C200" s="50" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="D200" s="50" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="E200" s="51" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="F200" s="52"/>
       <c r="G200" s="53"/>
@@ -11692,12 +11737,12 @@
       <c r="U200" s="55"/>
       <c r="V200" s="56"/>
       <c r="W200" s="57" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="49">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B201" s="50" t="s">
         <v>34</v>
@@ -11706,10 +11751,10 @@
         <v>67</v>
       </c>
       <c r="D201" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E201" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F201" s="52"/>
       <c r="G201" s="53"/>
@@ -11732,25 +11777,42 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="7"/>
-      <c r="K202" s="7"/>
-      <c r="L202" s="7"/>
-      <c r="M202" s="7"/>
-      <c r="N202" s="7"/>
-      <c r="O202" s="7"/>
-      <c r="P202" s="7"/>
-      <c r="Q202" s="7"/>
-      <c r="R202" s="7"/>
-      <c r="S202" s="7"/>
-      <c r="T202" s="7"/>
-      <c r="U202" s="8"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="9"/>
+    <row r="202" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="49">
+        <v>445</v>
+      </c>
+      <c r="B202" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D202" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="E202" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F202" s="52"/>
+      <c r="G202" s="53"/>
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="54"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="54"/>
+      <c r="N202" s="54"/>
+      <c r="O202" s="54"/>
+      <c r="P202" s="54"/>
+      <c r="Q202" s="54"/>
+      <c r="R202" s="54"/>
+      <c r="S202" s="54"/>
+      <c r="T202" s="54"/>
+      <c r="U202" s="55"/>
+      <c r="V202" s="56"/>
+      <c r="W202" s="57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="203" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F203" s="6"/>
@@ -15072,52 +15134,69 @@
       <c r="V368" s="2"/>
       <c r="W368" s="9"/>
     </row>
-    <row r="369" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W369" s="7"/>
-    </row>
-    <row r="370" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="6"/>
+      <c r="I369" s="6"/>
+      <c r="J369" s="7"/>
+      <c r="K369" s="7"/>
+      <c r="L369" s="7"/>
+      <c r="M369" s="7"/>
+      <c r="N369" s="7"/>
+      <c r="O369" s="7"/>
+      <c r="P369" s="7"/>
+      <c r="Q369" s="7"/>
+      <c r="R369" s="7"/>
+      <c r="S369" s="7"/>
+      <c r="T369" s="7"/>
+      <c r="U369" s="8"/>
+      <c r="V369" s="2"/>
+      <c r="W369" s="9"/>
+    </row>
+    <row r="370" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W370" s="7"/>
     </row>
-    <row r="371" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W371" s="7"/>
     </row>
-    <row r="372" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W372" s="7"/>
     </row>
-    <row r="373" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W373" s="7"/>
     </row>
-    <row r="374" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W374" s="7"/>
     </row>
-    <row r="375" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W375" s="7"/>
     </row>
-    <row r="376" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W376" s="7"/>
     </row>
-    <row r="377" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W377" s="7"/>
     </row>
-    <row r="378" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W378" s="7"/>
     </row>
-    <row r="379" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W379" s="7"/>
     </row>
-    <row r="380" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W380" s="7"/>
     </row>
-    <row r="381" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W381" s="7"/>
     </row>
-    <row r="382" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W382" s="7"/>
     </row>
-    <row r="383" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W383" s="7"/>
     </row>
-    <row r="384" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W384" s="7"/>
     </row>
     <row r="385" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16323,8 +16402,11 @@
     <row r="785" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W785" s="7"/>
     </row>
+    <row r="786" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W786" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:W201" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A9:W202" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="RAD"/>
@@ -16352,19 +16434,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J35:J39 M35:N39 P35:R39 J42:J46 M42:N46 P42:R46 P10:R32 J10:J32 M10:N32 P48:R201 M48:N201 J49:J201</xm:sqref>
+          <xm:sqref>J35:J39 M35:N39 P35:R39 J42:J46 M42:N46 P42:R46 P10:R32 J10:J32 M10:N32 M175:N202 J175:J202 J49:J173 M48:N173 P48:R173 P175:R202</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T35:T39 T42:T46 T10:T32 T48:T201</xm:sqref>
+          <xm:sqref>T35:T39 T42:T46 T10:T32 T48:T173 T175:T202</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K201</xm:sqref>
+          <xm:sqref>K10:K173 K175:K202</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16431,7 +16513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
